--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_nov_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_nov_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>SlNo</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>quiz</t>
+  </si>
+  <si>
+    <t>SAFe</t>
+  </si>
+  <si>
+    <t>KT/Analysis</t>
+  </si>
+  <si>
+    <t>Gone through Agile</t>
+  </si>
+  <si>
+    <t>Gone through Safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART </t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
 </sst>
 </file>
@@ -581,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,7 +610,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,43 +669,77 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="10">
+        <v>44502</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="10">
+        <v>44503</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="10">
+        <v>44504</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="10">
+        <v>44505</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>44508</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_nov_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_nov_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>SlNo</t>
   </si>
@@ -58,10 +58,34 @@
     <t>Gone through Safe</t>
   </si>
   <si>
-    <t xml:space="preserve">ART </t>
+    <t>KT</t>
   </si>
   <si>
-    <t>KT</t>
+    <t>Lex traning videos about safe</t>
+  </si>
+  <si>
+    <t>Core java</t>
+  </si>
+  <si>
+    <t>condition if nested if else revision/lex safe</t>
+  </si>
+  <si>
+    <t>overloading overriding revision/lex angular</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>looping inheritace  revision</t>
+  </si>
+  <si>
+    <t>revision core java oops</t>
+  </si>
+  <si>
+    <t>revision core java  basics</t>
+  </si>
+  <si>
+    <t>java spring revision</t>
   </si>
 </sst>
 </file>
@@ -599,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
         <v>8</v>
@@ -727,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
@@ -740,63 +764,117 @@
       <c r="C9" s="10">
         <v>44508</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="10">
+        <v>44509</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="10">
+        <v>44510</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="10">
+        <v>44511</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="10">
+        <v>44512</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="10">
+        <v>44515</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="10">
+        <v>44517</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
